--- a/data/trans_orig/P05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Edad-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8148,2551 +8147,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16-24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>29686</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>15374</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>49924</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.07279588246633231</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.03770082439220387</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.1224258748295549</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>30807</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>17690</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>48088</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.08498125221203551</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.04879933542158726</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.1326509312433204</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>60492</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>40294</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>87373</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.07853041909331576</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.05230852689158274</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.1134260112087208</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>36986</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>21323</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>59725</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.09069768310963555</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.05228900879556913</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.1464591964788008</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>50567</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>35280</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>71160</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.1394917945503754</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.09732185729966886</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.196295573488975</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>87553</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>64040</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>115901</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.1136605988912188</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.08313635299788082</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.1504618113246857</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>341121</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>316099</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>364342</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.8365064344240324</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.7751465723516034</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.8934488782234264</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>161</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>281138</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>257979</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>301093</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.775526953237589</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.711641796253645</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.8305725994260543</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>305</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>622259</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>589088</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>652205</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.8078089820154656</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.7647467955906557</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.846684588665052</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>172</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>407793</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>407793</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>407793</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>207</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>362512</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>362512</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>362512</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>379</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>770305</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>770305</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>770305</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>34738</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>21089</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>53253</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.07284258591509243</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.04422230047925724</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.1116680088754756</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>48637</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>35732</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>64255</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.09712645773570427</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.07135683740897329</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.1283161887029871</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>83375</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>65345</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>106303</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.08528094053869667</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.06683905437692406</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.108733991934028</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>63867</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>46815</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>85854</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.1339245048058897</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.09816655807280697</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.1800298509147789</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>63161</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>48855</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>82095</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.1261315656344935</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.09756139547123416</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.1639413769438181</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>127029</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>100457</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>153689</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.1299329114681367</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.1027542383457881</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.1572024883558529</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>247</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>378285</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>352911</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>400584</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.7932329092790178</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.7400258257544863</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.8399917178758153</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>363</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>388959</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>367075</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>407882</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.7767419766298022</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.7330393903179625</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.8145303353682626</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>610</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>767244</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>738473</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>796934</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.7847861479931666</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.7553571512896815</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.8151547229855786</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>302</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>476890</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>476890</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>476890</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>460</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>500757</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>500757</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>500757</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>762</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>977647</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>977647</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>977647</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>64992</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>50378</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>82298</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.1052571498346967</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.08158964904871872</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.133286626980403</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>55405</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>43557</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>69121</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.08921494339360299</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.07013658564331421</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.1113008445977726</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>120397</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>101129</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>141393</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.09721288394470681</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.08165566854780124</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.1141659004417592</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>83105</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>65183</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>104041</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.1345932809150688</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.1055668207848086</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.1684993442068258</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>100362</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>84159</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>116510</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.16160499705553</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.1355142629621325</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.1876078624162723</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>195</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>183467</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>163967</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>209252</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.148138140069991</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.1323931678804612</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.1689575430100534</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>419</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>469358</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>445575</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>491099</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.7601495692502345</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.7216322802730255</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.79535942814326</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>648</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>465265</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>445992</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>485346</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.7491800595508671</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.7181459531364308</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.7815158640875118</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>1067</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>934623</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>906429</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>962942</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.7546489759853021</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.7318842485667936</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.7775146134259364</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>543</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>617455</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>617455</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>617455</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>845</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>621032</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>621032</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>621032</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>1388</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>1238487</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>1238487</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>1238487</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>63753</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>48822</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>80916</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.0909949274522778</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.06968445648417951</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.1154926369002068</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>80670</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>68247</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>95133</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.109605882067923</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.09272667760804017</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.1292571527396182</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>173</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>144423</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>124105</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>165866</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.1005295877204157</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.08638718389828094</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.115455904351424</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>112236</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>91946</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>133839</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1601953498105136</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.1312361481456316</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.1910300260307262</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>96364</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>82868</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>113255</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.1309292969377098</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.1125926431745766</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.1538791011982907</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>245</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>208600</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>184229</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>234781</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.1452019291454086</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1282378533009599</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.1634259565992426</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>507</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>524629</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>500496</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>546866</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.7488097227372088</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.7143644771118485</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.7805484530755502</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>879</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>558965</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>540273</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>576988</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.7594648209943672</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.7340680050274448</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.7839517281331837</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>1386</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>1083595</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1053330</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>1115142</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.7542684831341756</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.7332013383848867</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.7762274597577281</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>665</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>700617</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>700617</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>700617</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1139</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>735999</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>735999</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>735999</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>1804</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1436617</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1436617</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1436617</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>46904</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>35307</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>59175</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.07697430977340455</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.0579423934372284</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.0971118519284635</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>58067</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>46622</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>69987</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.0954785550722843</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.07665930718466736</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.1150775410154955</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>104971</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>88685</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>123788</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.08621749340994087</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.0728408448241816</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.1016726473101887</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>75396</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>61189</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>92871</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.1237329881541778</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.1004179134730929</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.1524104810501655</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>89071</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>75368</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>104649</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.1464577672144723</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.1239262871730594</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.1720716170650398</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>221</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>164468</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>143726</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>182616</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.1350843998200582</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.1180483019858619</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.1499901330154381</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>529</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>487046</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>466331</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>505313</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.7992927020724176</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.7652969062205837</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.8292714820024504</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>774</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>461032</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>443408</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>477503</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.7580636777132433</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.7290853751933069</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.7851474907688337</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>1303</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>948078</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>924171</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>974010</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.7786981067700011</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.7590624842974718</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.7999971175047578</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>663</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>609346</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>609346</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>609346</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>608170</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>608170</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>608170</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>1664</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>1217517</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>1217517</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>1217517</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65-74</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>35526</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>25818</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>45535</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0.0872708972569621</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0.06342165072269945</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0.1118577633458765</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>39898</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>31056</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>49335</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>0.09123396011474849</v>
-      </c>
-      <c r="O24" s="6" t="n">
-        <v>0.07101641626273081</v>
-      </c>
-      <c r="P24" s="6" t="n">
-        <v>0.1128141246257518</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="R24" s="5" t="n">
-        <v>75424</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>63674</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>91149</v>
-      </c>
-      <c r="U24" s="6" t="n">
-        <v>0.0893233799095255</v>
-      </c>
-      <c r="V24" s="6" t="n">
-        <v>0.07540823158669971</v>
-      </c>
-      <c r="W24" s="6" t="n">
-        <v>0.1079459717242623</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>51294</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>41574</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>62861</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.1260035143432735</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0.1021277933381783</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0.1544194094475158</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>65603</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>54407</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>76798</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.1500137282982304</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>0.1244115362684163</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.1756129578172225</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>186</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>116897</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>101772</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>134509</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>0.1384384792669463</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0.1205264257964838</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>0.1592968213361869</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>449</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>320260</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>305895</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>333130</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.7867255883997644</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>0.7514359415679212</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>0.8183391670630829</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>642</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>331813</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>318241</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>345292</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.7587523115870211</v>
-      </c>
-      <c r="O26" s="6" t="n">
-        <v>0.727718078468142</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>0.7895734947203324</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>1091</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>652073</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>630358</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>668700</v>
-      </c>
-      <c r="U26" s="6" t="n">
-        <v>0.7722381408235283</v>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>0.746521691847842</v>
-      </c>
-      <c r="W26" s="6" t="n">
-        <v>0.7919290296745353</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>570</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>407080</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>407080</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>407080</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>824</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>437314</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>437314</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>437314</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>1394</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>844394</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>844394</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>844394</v>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>75 o más</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>18936</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>12696</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>27322</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.06112886364397103</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0.04098407014493686</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.08819916441227085</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>31116</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>23230</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>39499</v>
-      </c>
-      <c r="N28" s="6" t="n">
-        <v>0.06705024223037077</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>0.05005836512523049</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>0.08511556876750671</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>50052</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>39775</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>60460</v>
-      </c>
-      <c r="U28" s="6" t="n">
-        <v>0.06467986147702233</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>0.05139893681763302</v>
-      </c>
-      <c r="W28" s="6" t="n">
-        <v>0.07812992373403811</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>45481</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>35897</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>57186</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.1468191702746507</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.1158807192714069</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.1846041849555435</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>71914</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>61128</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>84174</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>0.1549650622997476</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0.1317238413601572</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>0.1813844220482003</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>185</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>117395</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>101411</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>134176</v>
-      </c>
-      <c r="U29" s="6" t="n">
-        <v>0.151704188941727</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>0.1310486057016995</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>0.1733901117563267</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>370</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>245358</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>231461</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <v>256413</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>0.7920519660813783</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>0.7471916198965155</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0.8277394059068739</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>704</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>361035</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>346856</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>373878</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0.7779846954698817</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>0.7474320635859633</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>0.8056594977340397</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>1074</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>606393</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>587679</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>624722</v>
-      </c>
-      <c r="U30" s="6" t="n">
-        <v>0.7836159495812507</v>
-      </c>
-      <c r="V30" s="6" t="n">
-        <v>0.7594331529355058</v>
-      </c>
-      <c r="W30" s="6" t="n">
-        <v>0.8073022212916331</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>457</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>309775</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>309775</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>309775</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>880</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>464064</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>464064</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>464064</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>1337</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>773839</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>773839</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>773839</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>294534</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>258040</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>333264</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>0.08346211214554997</v>
-      </c>
-      <c r="H32" s="6" t="n">
-        <v>0.07312087796040645</v>
-      </c>
-      <c r="I32" s="6" t="n">
-        <v>0.09443693208075171</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>457</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>344599</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>315921</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>382193</v>
-      </c>
-      <c r="N32" s="6" t="n">
-        <v>0.09238963978658332</v>
-      </c>
-      <c r="O32" s="6" t="n">
-        <v>0.08470077815986936</v>
-      </c>
-      <c r="P32" s="6" t="n">
-        <v>0.1024688027683727</v>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>725</v>
-      </c>
-      <c r="R32" s="5" t="n">
-        <v>639134</v>
-      </c>
-      <c r="S32" s="5" t="n">
-        <v>586999</v>
-      </c>
-      <c r="T32" s="5" t="n">
-        <v>688147</v>
-      </c>
-      <c r="U32" s="6" t="n">
-        <v>0.08804941376775124</v>
-      </c>
-      <c r="V32" s="6" t="n">
-        <v>0.08086709724847757</v>
-      </c>
-      <c r="W32" s="6" t="n">
-        <v>0.0948017286161033</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>439</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>468365</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>429764</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <v>516893</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>0.1327204499742008</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>0.121782115853766</v>
-      </c>
-      <c r="I33" s="6" t="n">
-        <v>0.1464717875812137</v>
-      </c>
-      <c r="J33" s="5" t="n">
-        <v>728</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>537043</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>501196</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>573452</v>
-      </c>
-      <c r="N33" s="6" t="n">
-        <v>0.143985073861179</v>
-      </c>
-      <c r="O33" s="6" t="n">
-        <v>0.1343743481812669</v>
-      </c>
-      <c r="P33" s="6" t="n">
-        <v>0.1537466231563163</v>
-      </c>
-      <c r="Q33" s="5" t="n">
-        <v>1167</v>
-      </c>
-      <c r="R33" s="5" t="n">
-        <v>1005407</v>
-      </c>
-      <c r="S33" s="5" t="n">
-        <v>952411</v>
-      </c>
-      <c r="T33" s="5" t="n">
-        <v>1066564</v>
-      </c>
-      <c r="U33" s="6" t="n">
-        <v>0.1385086401101477</v>
-      </c>
-      <c r="V33" s="6" t="n">
-        <v>0.1312076573526623</v>
-      </c>
-      <c r="W33" s="6" t="n">
-        <v>0.1469337889618868</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>2766058</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>2707968</v>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>2818259</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>0.7838174378802494</v>
-      </c>
-      <c r="H34" s="6" t="n">
-        <v>0.7673565876460562</v>
-      </c>
-      <c r="I34" s="6" t="n">
-        <v>0.7986096420009225</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>4171</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>2848207</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>2800939</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>2894595</v>
-      </c>
-      <c r="N34" s="6" t="n">
-        <v>0.7636252863522374</v>
-      </c>
-      <c r="O34" s="6" t="n">
-        <v>0.7509524376808825</v>
-      </c>
-      <c r="P34" s="6" t="n">
-        <v>0.776062207576647</v>
-      </c>
-      <c r="Q34" s="5" t="n">
-        <v>6836</v>
-      </c>
-      <c r="R34" s="5" t="n">
-        <v>5614265</v>
-      </c>
-      <c r="S34" s="5" t="n">
-        <v>5544008</v>
-      </c>
-      <c r="T34" s="5" t="n">
-        <v>5681473</v>
-      </c>
-      <c r="U34" s="6" t="n">
-        <v>0.7734419461221009</v>
-      </c>
-      <c r="V34" s="6" t="n">
-        <v>0.7637631414572211</v>
-      </c>
-      <c r="W34" s="6" t="n">
-        <v>0.7827008316950076</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>3372</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5" t="n">
-        <v>5356</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="N35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="5" t="n">
-        <v>8728</v>
-      </c>
-      <c r="R35" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="S35" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="T35" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="U35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>171494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150468</v>
+        <v>152897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193249</v>
+        <v>194755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3490836298940542</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3062857067414159</v>
+        <v>0.3112302975259828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3933686427358196</v>
+        <v>0.3964334784329021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -764,19 +764,19 @@
         <v>144668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126084</v>
+        <v>126127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164968</v>
+        <v>166062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3101127212902567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.27027643425549</v>
+        <v>0.2703685471647942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3536288580517068</v>
+        <v>0.3559738560092089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>319</v>
@@ -785,19 +785,19 @@
         <v>316162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>287782</v>
+        <v>288162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>343315</v>
+        <v>343232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3301020579232866</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.300470810618356</v>
+        <v>0.3008682590696432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3584524761230406</v>
+        <v>0.3583666580622035</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>221071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198368</v>
+        <v>198399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>242336</v>
+        <v>244460</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.450000501097168</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4037881338671134</v>
+        <v>0.4038508189261638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4932859643307927</v>
+        <v>0.4976098652975613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -835,19 +835,19 @@
         <v>223136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203262</v>
+        <v>202580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242136</v>
+        <v>244398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4783186545488695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4357153645175932</v>
+        <v>0.4342550128706227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5190465380848043</v>
+        <v>0.5238957890249392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>465</v>
@@ -856,19 +856,19 @@
         <v>444207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414426</v>
+        <v>412566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>474371</v>
+        <v>474101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4637934324677836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4326997891236599</v>
+        <v>0.4307570444402529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4952874144609527</v>
+        <v>0.4950052213746048</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>98704</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81317</v>
+        <v>83166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120041</v>
+        <v>117772</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2009158690087778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1655256462788703</v>
+        <v>0.1692882784334136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.244349863680689</v>
+        <v>0.2397296880098847</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -906,19 +906,19 @@
         <v>98697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>84252</v>
+        <v>82036</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>115789</v>
+        <v>116269</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2115686241608739</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1806031344899396</v>
+        <v>0.1758533716101684</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2482063414271697</v>
+        <v>0.2492353528461802</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>200</v>
@@ -927,19 +927,19 @@
         <v>197401</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>172653</v>
+        <v>173909</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>224392</v>
+        <v>222108</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2061045096089298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.180265802396604</v>
+        <v>0.1815771292214064</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2342861007671561</v>
+        <v>0.2319018676958744</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>256163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>227446</v>
+        <v>229932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>282374</v>
+        <v>282999</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3498898314721335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3106652470502955</v>
+        <v>0.3140610722479232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3856899651892168</v>
+        <v>0.3865440390666207</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>169</v>
@@ -1052,19 +1052,19 @@
         <v>174704</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150726</v>
+        <v>152129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>197356</v>
+        <v>195423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2810326269615807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2424596717853734</v>
+        <v>0.2447167529707845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3174699883185055</v>
+        <v>0.3143607154594469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>413</v>
@@ -1073,19 +1073,19 @@
         <v>430868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>397878</v>
+        <v>395890</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>470317</v>
+        <v>467144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3182707489898378</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2939022225698691</v>
+        <v>0.2924334143744654</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3474109421953613</v>
+        <v>0.3450671265638046</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>352660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>326722</v>
+        <v>324441</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>381602</v>
+        <v>380490</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4816926448794703</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4462649960908898</v>
+        <v>0.4431497850189192</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5212243146263198</v>
+        <v>0.519706225307634</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>308</v>
@@ -1123,19 +1123,19 @@
         <v>327862</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>301605</v>
+        <v>302927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>352711</v>
+        <v>351976</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5274046240707428</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4851662803727214</v>
+        <v>0.4872938947842511</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5673768781424591</v>
+        <v>0.5661940284282173</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>648</v>
@@ -1144,19 +1144,19 @@
         <v>680522</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>642266</v>
+        <v>638815</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>718216</v>
+        <v>715479</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5026834889131736</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4744248233115607</v>
+        <v>0.4718760217914578</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5305274267419249</v>
+        <v>0.5285053087537287</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>123303</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103461</v>
+        <v>102655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143988</v>
+        <v>145427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1684175236483962</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1413153576486108</v>
+        <v>0.1402147938345811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1966705578821092</v>
+        <v>0.1986363864897899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -1194,19 +1194,19 @@
         <v>119085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98563</v>
+        <v>101243</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140067</v>
+        <v>141468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1915627489676765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.158550163388605</v>
+        <v>0.1628614572775774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2253139985640117</v>
+        <v>0.2275673699067899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -1215,19 +1215,19 @@
         <v>242388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>215063</v>
+        <v>213474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>271997</v>
+        <v>272006</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1790457620969886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1588610152304782</v>
+        <v>0.1576873366283577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2009168284044109</v>
+        <v>0.2009235324380529</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>191864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168470</v>
+        <v>168601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>214236</v>
+        <v>215587</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3004128605087569</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2637838399918415</v>
+        <v>0.2639882973325274</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3354413543176061</v>
+        <v>0.3375577231482167</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -1340,19 +1340,19 @@
         <v>237830</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212156</v>
+        <v>213231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>263240</v>
+        <v>262495</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3448092856458975</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3075868147019956</v>
+        <v>0.3091457558172913</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3816491852294957</v>
+        <v>0.3805682169796317</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>405</v>
@@ -1361,19 +1361,19 @@
         <v>429694</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>391750</v>
+        <v>395609</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>465198</v>
+        <v>462950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3234645815845541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2949010200877015</v>
+        <v>0.2978056636658061</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3501912607469269</v>
+        <v>0.3484986081380303</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>318898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>293109</v>
+        <v>293768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>346141</v>
+        <v>343001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4993173475708215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4589384050032578</v>
+        <v>0.4599697420975386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5419738458235155</v>
+        <v>0.5370560862233282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>304</v>
@@ -1411,19 +1411,19 @@
         <v>316188</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>290210</v>
+        <v>289799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>340494</v>
+        <v>341071</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4584129461118114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4207501310253817</v>
+        <v>0.4201549828016733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4936532851653986</v>
+        <v>0.4944892341191894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>617</v>
@@ -1432,19 +1432,19 @@
         <v>635086</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>599887</v>
+        <v>599446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>676214</v>
+        <v>674273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4780787714851826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4515819769839662</v>
+        <v>0.4512503897149823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5090396143932683</v>
+        <v>0.5075779913647817</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>127906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105879</v>
+        <v>108386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148456</v>
+        <v>153275</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2002697919204217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1657805995009229</v>
+        <v>0.1697067926770738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.232446149578976</v>
+        <v>0.2399912486403231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1482,19 +1482,19 @@
         <v>135726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117198</v>
+        <v>117699</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157703</v>
+        <v>157452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1967777682422911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1699148631167435</v>
+        <v>0.1706419056836115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2286395583674597</v>
+        <v>0.2282754033279469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>249</v>
@@ -1503,19 +1503,19 @@
         <v>263632</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>234681</v>
+        <v>236465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>294535</v>
+        <v>297707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1984566469302633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1766625370636038</v>
+        <v>0.178005671722238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2217198655563576</v>
+        <v>0.224107482187702</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>172348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150595</v>
+        <v>149379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195084</v>
+        <v>193743</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3326556644247343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.290669269747729</v>
+        <v>0.2883217514552489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3765385934520314</v>
+        <v>0.3739512376999945</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1628,19 +1628,19 @@
         <v>140404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120422</v>
+        <v>121947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159613</v>
+        <v>161480</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2733798999900772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2344735918127186</v>
+        <v>0.2374430761228861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3107807079807114</v>
+        <v>0.314416059630883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>293</v>
@@ -1649,19 +1649,19 @@
         <v>312752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282219</v>
+        <v>284284</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>343205</v>
+        <v>345089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.303147356890829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2735517820306194</v>
+        <v>0.2755533907771784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3326655977759059</v>
+        <v>0.3344915577618477</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>242347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217611</v>
+        <v>217533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264795</v>
+        <v>263633</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4677638172023821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4200200476880844</v>
+        <v>0.4198699254933711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5110919518748006</v>
+        <v>0.5088495141664562</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>265</v>
@@ -1699,19 +1699,19 @@
         <v>272112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251641</v>
+        <v>249736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>295993</v>
+        <v>293356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5298268272844895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4899680266367144</v>
+        <v>0.4862594305607734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5763260300702681</v>
+        <v>0.5711920945116827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>493</v>
@@ -1720,19 +1720,19 @@
         <v>514459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>477963</v>
+        <v>481774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>545545</v>
+        <v>547288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4986596547415422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4632845872864798</v>
+        <v>0.4669783341317035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.528791305159006</v>
+        <v>0.5304803276133218</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>103402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85361</v>
+        <v>86644</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122838</v>
+        <v>123988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1995805183728836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1647584495113612</v>
+        <v>0.1672344667210406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.237094859767199</v>
+        <v>0.2393148239346998</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>99</v>
@@ -1770,19 +1770,19 @@
         <v>101070</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84581</v>
+        <v>84008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119163</v>
+        <v>118214</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1967932727254333</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.164686719654145</v>
+        <v>0.1635709096318045</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2320208296405678</v>
+        <v>0.2301737409443827</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>197</v>
@@ -1791,19 +1791,19 @@
         <v>204472</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178482</v>
+        <v>180339</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>228012</v>
+        <v>231647</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1981929883676288</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1730004603857231</v>
+        <v>0.1748008563617415</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2210095518667323</v>
+        <v>0.2245334215044185</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>124094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106673</v>
+        <v>107042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144087</v>
+        <v>145118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3229167011091236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2775858053397077</v>
+        <v>0.2785442650769917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3749424804773154</v>
+        <v>0.3776269155971776</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1916,19 +1916,19 @@
         <v>133588</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114501</v>
+        <v>113986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152632</v>
+        <v>152849</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3323220663758339</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2848402366385839</v>
+        <v>0.283559020999948</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3796959815316474</v>
+        <v>0.3802365708952909</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -1937,19 +1937,19 @@
         <v>257682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>230909</v>
+        <v>232896</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>285759</v>
+        <v>284021</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3277252106338998</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.293674675763662</v>
+        <v>0.296201596446843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3634345340892532</v>
+        <v>0.3612236033036785</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>197752</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>178681</v>
+        <v>178130</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>216342</v>
+        <v>217027</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5145904992753375</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4649642801727997</v>
+        <v>0.463531355716811</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5629655292137383</v>
+        <v>0.5647472475274924</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>193</v>
@@ -1987,19 +1987,19 @@
         <v>195930</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>177252</v>
+        <v>175627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>217159</v>
+        <v>217956</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4874063147213142</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4409421805911111</v>
+        <v>0.4368997770359453</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5402173597756996</v>
+        <v>0.5422008952989017</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>392</v>
@@ -2008,19 +2008,19 @@
         <v>393682</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>366855</v>
+        <v>366312</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>423666</v>
+        <v>421055</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5006925371394113</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4665740574035924</v>
+        <v>0.4658833095170625</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5388275358176434</v>
+        <v>0.5355063130754645</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>62444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49398</v>
+        <v>49371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78040</v>
+        <v>76378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.162492799615539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1285423152009037</v>
+        <v>0.128473586815633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.203076676930568</v>
+        <v>0.1987510698587526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2058,19 +2058,19 @@
         <v>72466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58279</v>
+        <v>58159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89185</v>
+        <v>89377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1802716189028519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1449778998936477</v>
+        <v>0.1446787490289679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2218612350187561</v>
+        <v>0.2223408079322716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -2079,19 +2079,19 @@
         <v>134911</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114557</v>
+        <v>116179</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156299</v>
+        <v>155202</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1715822522266889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1456964220905764</v>
+        <v>0.1477592243788483</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1987844451294852</v>
+        <v>0.1973892078061152</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>89964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74528</v>
+        <v>76327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>104602</v>
+        <v>106236</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3074830112783425</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2547233341614475</v>
+        <v>0.2608714660147846</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3575132902841686</v>
+        <v>0.3630954203797709</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -2204,19 +2204,19 @@
         <v>111193</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95473</v>
+        <v>96149</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>129268</v>
+        <v>128284</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3250597860795333</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2791044192061037</v>
+        <v>0.2810805221036913</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3779000845325245</v>
+        <v>0.3750233516986627</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>216</v>
@@ -2225,19 +2225,19 @@
         <v>201158</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>181455</v>
+        <v>178124</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>224216</v>
+        <v>223491</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3169566783936889</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2859123807881631</v>
+        <v>0.2806638578205463</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3532885979634233</v>
+        <v>0.3521461959861157</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>160263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142794</v>
+        <v>144812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>175621</v>
+        <v>176577</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5477530617788928</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4880456774397659</v>
+        <v>0.4949449754024052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6002438746327957</v>
+        <v>0.6035104286785167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>184</v>
@@ -2275,19 +2275,19 @@
         <v>170307</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153418</v>
+        <v>152224</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186661</v>
+        <v>186487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4978728031501118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4484993653406198</v>
+        <v>0.4450091379080557</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5456802197740882</v>
+        <v>0.5451722866964901</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -2296,19 +2296,19 @@
         <v>330571</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>308095</v>
+        <v>307341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>354299</v>
+        <v>355875</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5208682111039875</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4854536451701192</v>
+        <v>0.4842662567370656</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5582564104882866</v>
+        <v>0.5607392627292411</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>42355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32795</v>
+        <v>31539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53581</v>
+        <v>55032</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1447639269427647</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1120871680626481</v>
+        <v>0.1077941259829729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1831319959374954</v>
+        <v>0.1880886143732967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -2346,19 +2346,19 @@
         <v>60569</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47523</v>
+        <v>48279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75631</v>
+        <v>75354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1770674107703548</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1389280882913461</v>
+        <v>0.1411371307414258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2210977081682266</v>
+        <v>0.2202888230414793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -2367,19 +2367,19 @@
         <v>102925</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86841</v>
+        <v>86164</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121627</v>
+        <v>121423</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1621751105023236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1368329846246713</v>
+        <v>0.1357654406440713</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1916435113544795</v>
+        <v>0.191322514353171</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>66358</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54018</v>
+        <v>53189</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80033</v>
+        <v>80219</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3174817835749063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2584407531684363</v>
+        <v>0.2544761121772535</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3829075810702073</v>
+        <v>0.3837970128289158</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -2492,19 +2492,19 @@
         <v>107349</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89678</v>
+        <v>88582</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>125962</v>
+        <v>125826</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3214931079274094</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.268570500095396</v>
+        <v>0.2652878911521033</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3772369150668364</v>
+        <v>0.3768290431046124</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>163</v>
@@ -2513,19 +2513,19 @@
         <v>173708</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>151595</v>
+        <v>153911</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>197720</v>
+        <v>196808</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3199488247982534</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2792197626753106</v>
+        <v>0.2834863700892168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3641774464138632</v>
+        <v>0.3624976547331608</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>107508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>93659</v>
+        <v>93816</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>121049</v>
+        <v>120960</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.514353287199801</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4480976105555707</v>
+        <v>0.4488495707498639</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.579139823358248</v>
+        <v>0.578713401760716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>147</v>
@@ -2563,19 +2563,19 @@
         <v>167279</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>146675</v>
+        <v>147896</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>186095</v>
+        <v>188861</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5009724872930043</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4392681849012074</v>
+        <v>0.4429256533923605</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5573256199372382</v>
+        <v>0.5656067581174231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>259</v>
@@ -2584,19 +2584,19 @@
         <v>274786</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>251365</v>
+        <v>248175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>300402</v>
+        <v>296559</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5061238392493188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.462985463252304</v>
+        <v>0.4571091908922273</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5533055855476381</v>
+        <v>0.5462272015112637</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>35149</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26286</v>
+        <v>25624</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45956</v>
+        <v>46701</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1681649292252926</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1257622330450327</v>
+        <v>0.1225920012916445</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2198701004709944</v>
+        <v>0.2234324347281809</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>50</v>
@@ -2634,19 +2634,19 @@
         <v>59280</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>44984</v>
+        <v>45967</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>73868</v>
+        <v>74767</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1775344047795863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1347209694139937</v>
+        <v>0.1376621822912751</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2212215682911614</v>
+        <v>0.2239147337443659</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>87</v>
@@ -2655,19 +2655,19 @@
         <v>94429</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>77710</v>
+        <v>77552</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>114124</v>
+        <v>116359</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1739273359524279</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1431317264391843</v>
+        <v>0.1428412501549727</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2102020893413941</v>
+        <v>0.2143204036688417</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>1072285</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1024728</v>
+        <v>1017390</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1131429</v>
+        <v>1125037</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3283129318644069</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3137518984707825</v>
+        <v>0.3115049894439547</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3464216366550373</v>
+        <v>0.3444646478147092</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1021</v>
@@ -2780,19 +2780,19 @@
         <v>1049737</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>999554</v>
+        <v>994342</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1100518</v>
+        <v>1102460</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.311545999341111</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2966523829778447</v>
+        <v>0.2951053884016659</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.326617022536143</v>
+        <v>0.3271931899714423</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2066</v>
@@ -2801,19 +2801,19 @@
         <v>2122023</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2039848</v>
+        <v>2048969</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2191896</v>
+        <v>2199658</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3197988279112066</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3074147581713708</v>
+        <v>0.3087892921314209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3303290440137069</v>
+        <v>0.3314989295410097</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>1600498</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1544236</v>
+        <v>1544300</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1654339</v>
+        <v>1661477</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4900414391987528</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4728150861918188</v>
+        <v>0.4728347919474362</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5065264961577943</v>
+        <v>0.5087119282668794</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1637</v>
@@ -2851,19 +2851,19 @@
         <v>1672814</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1615592</v>
+        <v>1617192</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1730407</v>
+        <v>1730463</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4964654690639393</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4794828423323138</v>
+        <v>0.4799577992919675</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5135581852591874</v>
+        <v>0.5135749374791957</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3220</v>
@@ -2872,19 +2872,19 @@
         <v>3273311</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3194704</v>
+        <v>3192130</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3350961</v>
+        <v>3357708</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.493303506246179</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4814569405429053</v>
+        <v>0.4810690051530504</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5050057177044298</v>
+        <v>0.5060224932136259</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>593263</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>549561</v>
+        <v>544730</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>640023</v>
+        <v>640643</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1816456289368403</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1682649092799744</v>
+        <v>0.1667856432546069</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1959626191860158</v>
+        <v>0.1961524448299793</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>630</v>
@@ -2922,19 +2922,19 @@
         <v>646895</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>603937</v>
+        <v>599845</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>695336</v>
+        <v>691072</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1919885315949496</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.179239249734223</v>
+        <v>0.1780248129106706</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2063651973203191</v>
+        <v>0.2050995383083617</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1206</v>
@@ -2943,19 +2943,19 @@
         <v>1240158</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1175210</v>
+        <v>1176079</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1303892</v>
+        <v>1305234</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1868976658426144</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1771097734927705</v>
+        <v>0.1772406223459626</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1965026949398793</v>
+        <v>0.196704976546839</v>
       </c>
     </row>
     <row r="35">
@@ -3290,19 +3290,19 @@
         <v>153264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132766</v>
+        <v>133501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174196</v>
+        <v>173590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3381864622028909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2929558478726609</v>
+        <v>0.2945779377735115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3843748394359038</v>
+        <v>0.3830360844871581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -3311,19 +3311,19 @@
         <v>150487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131580</v>
+        <v>129389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169750</v>
+        <v>170696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3506083559532542</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3065596246321032</v>
+        <v>0.301455098216339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3954893072968788</v>
+        <v>0.3976914602418118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -3332,19 +3332,19 @@
         <v>303751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>277161</v>
+        <v>274526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>333629</v>
+        <v>330952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3442286408376977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3140951534942104</v>
+        <v>0.3111092329096949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3780880201082706</v>
+        <v>0.3750550262749928</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>196344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176403</v>
+        <v>175626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220858</v>
+        <v>216413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4332442898860401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3892435345610004</v>
+        <v>0.3875287156014242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4873360028444252</v>
+        <v>0.4775283411558414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -3382,19 +3382,19 @@
         <v>175667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154382</v>
+        <v>155288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195054</v>
+        <v>194980</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4092733577471107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3596830116844431</v>
+        <v>0.3617946242793645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4544424476471953</v>
+        <v>0.454269239120065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -3403,19 +3403,19 @@
         <v>372010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343901</v>
+        <v>343701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>402773</v>
+        <v>404164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4215845013757732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3897293986757652</v>
+        <v>0.3895020835641231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4564471146092831</v>
+        <v>0.4580226259486093</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>103586</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86218</v>
+        <v>86633</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125314</v>
+        <v>122215</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2285692479110689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1902450830287162</v>
+        <v>0.1911603448963754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2765135555434869</v>
+        <v>0.2696756978785139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -3453,19 +3453,19 @@
         <v>103063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87592</v>
+        <v>86458</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122943</v>
+        <v>121057</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2401182862996351</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2040734838303477</v>
+        <v>0.2014313333130459</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2864367001965288</v>
+        <v>0.2820418170646867</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>204</v>
@@ -3474,19 +3474,19 @@
         <v>206649</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179561</v>
+        <v>181494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>231585</v>
+        <v>233675</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2341868577865291</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2034894648757572</v>
+        <v>0.2056795846421285</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2624455195376326</v>
+        <v>0.2648150320952048</v>
       </c>
     </row>
     <row r="7">
@@ -3578,19 +3578,19 @@
         <v>240728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216503</v>
+        <v>216020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>268423</v>
+        <v>266897</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3522429147833508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3167955506890305</v>
+        <v>0.3160888685754069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3927668608598582</v>
+        <v>0.3905340832242916</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -3599,19 +3599,19 @@
         <v>221458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195100</v>
+        <v>195461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>247065</v>
+        <v>244061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3628944703387085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3197016360723872</v>
+        <v>0.3202935271938027</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4048555094997134</v>
+        <v>0.3999325631703718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>434</v>
@@ -3620,19 +3620,19 @@
         <v>462186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429783</v>
+        <v>428760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>498760</v>
+        <v>496186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3572675108786153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3322198530499947</v>
+        <v>0.3314293952928495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3855391339412935</v>
+        <v>0.3835494545486031</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>269126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>244297</v>
+        <v>243987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>293755</v>
+        <v>295771</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.393796172015247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3574647745335476</v>
+        <v>0.3570121333412243</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4298342375344362</v>
+        <v>0.4327844809165513</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>248</v>
@@ -3670,19 +3670,19 @@
         <v>264997</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>236538</v>
+        <v>238379</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>290078</v>
+        <v>286214</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4342395964813396</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3876054724123668</v>
+        <v>0.3906211493013403</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4753381917625426</v>
+        <v>0.4690079746510026</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>519</v>
@@ -3691,19 +3691,19 @@
         <v>534123</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>498883</v>
+        <v>499423</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>570483</v>
+        <v>566466</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4128743124422797</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3856337507142568</v>
+        <v>0.3860515131503777</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4409801592645469</v>
+        <v>0.4378749987780432</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>173561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149821</v>
+        <v>151408</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197974</v>
+        <v>196734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2539609132014022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2192233489215774</v>
+        <v>0.2215461056494404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.289683842019951</v>
+        <v>0.2878697323426292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -3741,19 +3741,19 @@
         <v>123800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104868</v>
+        <v>105722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143700</v>
+        <v>147628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2028659331799519</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1718423870572693</v>
+        <v>0.1732415953848584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2354749490346342</v>
+        <v>0.2419120510682364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -3762,19 +3762,19 @@
         <v>297361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267535</v>
+        <v>265872</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>329904</v>
+        <v>330250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.229858176679105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2068033590722175</v>
+        <v>0.2055177753875425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2550137691526256</v>
+        <v>0.2552815896046572</v>
       </c>
     </row>
     <row r="11">
@@ -3866,19 +3866,19 @@
         <v>212774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188640</v>
+        <v>189416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238978</v>
+        <v>239333</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3123805494092176</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.276948756741682</v>
+        <v>0.2780890687157191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3508521809784862</v>
+        <v>0.3513736800052752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>223</v>
@@ -3887,19 +3887,19 @@
         <v>240845</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217656</v>
+        <v>212822</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269037</v>
+        <v>266054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3410937385887999</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.308253561571826</v>
+        <v>0.3014075787749562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3810203205044036</v>
+        <v>0.376795787553882</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>424</v>
@@ -3908,19 +3908,19 @@
         <v>453618</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>419934</v>
+        <v>419103</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>487921</v>
+        <v>487456</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3269954518628796</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3027140369357955</v>
+        <v>0.3021147412707533</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3517228042161623</v>
+        <v>0.3513879375546994</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>302853</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>278257</v>
+        <v>275946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>330336</v>
+        <v>328828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4446295259945768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4085188647038278</v>
+        <v>0.4051257944550223</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.484978505516432</v>
+        <v>0.4827647205044852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -3958,19 +3958,19 @@
         <v>288412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>260857</v>
+        <v>261370</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>314281</v>
+        <v>316313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4084608333470277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3694363764733404</v>
+        <v>0.3701622196676267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4450971198418947</v>
+        <v>0.4479751470365187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>561</v>
@@ -3979,19 +3979,19 @@
         <v>591265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552450</v>
+        <v>552926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>630936</v>
+        <v>628865</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4262198010554782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3982391839556891</v>
+        <v>0.3985825557660619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4548169939267936</v>
+        <v>0.4533236578294061</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>165509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143114</v>
+        <v>143911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189617</v>
+        <v>191385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2429899245962055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2101101729420499</v>
+        <v>0.2112815625851966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2783838197321303</v>
+        <v>0.280979596974618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -4029,19 +4029,19 @@
         <v>176838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157625</v>
+        <v>154079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199687</v>
+        <v>200668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2504454280641724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2232353222010257</v>
+        <v>0.2182123679787312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2828044696584179</v>
+        <v>0.2841944870569808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -4050,19 +4050,19 @@
         <v>342347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306678</v>
+        <v>310248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>375629</v>
+        <v>376515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2467847470816422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2210722571473738</v>
+        <v>0.2236453084397871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2707759171299225</v>
+        <v>0.2714145273876946</v>
       </c>
     </row>
     <row r="15">
@@ -4154,19 +4154,19 @@
         <v>192143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>168690</v>
+        <v>170707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214363</v>
+        <v>216274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3131441686409883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2749212134582696</v>
+        <v>0.2782082569143881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3493572008354028</v>
+        <v>0.3524712533630896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>179</v>
@@ -4175,19 +4175,19 @@
         <v>205203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182695</v>
+        <v>181316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>232381</v>
+        <v>231290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3353785343742475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2985909388221299</v>
+        <v>0.2963371360125048</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3797973494409245</v>
+        <v>0.3780140367553964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>348</v>
@@ -4196,19 +4196,19 @@
         <v>397346</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360320</v>
+        <v>365123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>430769</v>
+        <v>436120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3242455932694865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2940314822144953</v>
+        <v>0.2979505744531379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3515192276566623</v>
+        <v>0.3558860059857359</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>268299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241211</v>
+        <v>241611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293208</v>
+        <v>292284</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4372593822924375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3931121013788313</v>
+        <v>0.3937650844207188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4778536655446654</v>
+        <v>0.4763487915354939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -4246,19 +4246,19 @@
         <v>236169</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212700</v>
+        <v>208790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>264386</v>
+        <v>262291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3859884874561197</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3476304971129407</v>
+        <v>0.3412408241931655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4321044536153464</v>
+        <v>0.4286811070492716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>442</v>
@@ -4267,19 +4267,19 @@
         <v>504468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>466673</v>
+        <v>469027</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>542934</v>
+        <v>542624</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4116602722710693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3808183469063413</v>
+        <v>0.3827390601675784</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4430492907681631</v>
+        <v>0.4427967206104268</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>153151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133492</v>
+        <v>131231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176673</v>
+        <v>176246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2495964490665742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2175583890467835</v>
+        <v>0.213873497482774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2879325212567523</v>
+        <v>0.2872353936547937</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>150</v>
@@ -4317,19 +4317,19 @@
         <v>170483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146530</v>
+        <v>148255</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>193945</v>
+        <v>196252</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2786329781696328</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2394845371436099</v>
+        <v>0.2423032933396968</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.316977971410664</v>
+        <v>0.3207486129214966</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>292</v>
@@ -4338,19 +4338,19 @@
         <v>323634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>290513</v>
+        <v>290747</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>358245</v>
+        <v>355210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2640941344594442</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2370663659852794</v>
+        <v>0.2372574333013889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2923382305316378</v>
+        <v>0.2898615891895391</v>
       </c>
     </row>
     <row r="19">
@@ -4442,19 +4442,19 @@
         <v>129604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109476</v>
+        <v>110918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150981</v>
+        <v>149941</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3033094243929306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2562027420121764</v>
+        <v>0.2595770518502228</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3533374910399064</v>
+        <v>0.3509014896890386</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -4463,19 +4463,19 @@
         <v>137145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119308</v>
+        <v>119042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156485</v>
+        <v>158402</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.309861609859844</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2695598872855366</v>
+        <v>0.2689592837153614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3535563079544996</v>
+        <v>0.3578876002134111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -4484,19 +4484,19 @@
         <v>266750</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240234</v>
+        <v>240298</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297319</v>
+        <v>293380</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3066431405585459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.276162030211381</v>
+        <v>0.2762349328284063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3417836271372048</v>
+        <v>0.3372558094264518</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>178787</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>157071</v>
+        <v>158473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>201389</v>
+        <v>199217</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4184108277215025</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3675881687116705</v>
+        <v>0.3708693720442714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4713049228574434</v>
+        <v>0.4662216565624976</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>179</v>
@@ -4534,19 +4534,19 @@
         <v>199062</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>176028</v>
+        <v>175541</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>221663</v>
+        <v>220318</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4497530495408741</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3977115241092282</v>
+        <v>0.3966113997968134</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5008184566312471</v>
+        <v>0.4977796654959187</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>341</v>
@@ -4555,19 +4555,19 @@
         <v>377849</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>346284</v>
+        <v>349014</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>408065</v>
+        <v>412754</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4343575789349965</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3980724387267162</v>
+        <v>0.4012098585887275</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4690925097966479</v>
+        <v>0.4744828298607863</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>118909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99734</v>
+        <v>99787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139455</v>
+        <v>136261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.278279747885567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2334035878747392</v>
+        <v>0.2335289938904416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3263613645425864</v>
+        <v>0.3188879962030506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -4605,19 +4605,19 @@
         <v>106395</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87519</v>
+        <v>86970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127010</v>
+        <v>124652</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2403853405992819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1977370496460721</v>
+        <v>0.1964966863420746</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2869623258896815</v>
+        <v>0.2816347763907026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>209</v>
@@ -4626,19 +4626,19 @@
         <v>225304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>195922</v>
+        <v>197248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>253123</v>
+        <v>252093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2589992805064577</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2252227612276347</v>
+        <v>0.2267476796195443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.290978050419638</v>
+        <v>0.2897948676069065</v>
       </c>
     </row>
     <row r="23">
@@ -4730,19 +4730,19 @@
         <v>99003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>81997</v>
+        <v>81052</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>116533</v>
+        <v>116526</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3206502682861953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.265569998682183</v>
+        <v>0.2625093119008352</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3774245619503113</v>
+        <v>0.3774018590367806</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -4751,19 +4751,19 @@
         <v>92863</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>77165</v>
+        <v>77772</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>109897</v>
+        <v>111676</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2645026933881727</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2197889907008816</v>
+        <v>0.2215190836912629</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3130196739211238</v>
+        <v>0.3180865605838049</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>180</v>
@@ -4772,19 +4772,19 @@
         <v>191867</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>166460</v>
+        <v>171096</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>216142</v>
+        <v>218950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.290775582004369</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2522719662803888</v>
+        <v>0.2592973083689591</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3275641058746835</v>
+        <v>0.3318200183003167</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>130065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>113656</v>
+        <v>112258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150245</v>
+        <v>149138</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4212529793243717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3681083804793146</v>
+        <v>0.3635782930752833</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4866116327451493</v>
+        <v>0.4830240679239348</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>165</v>
@@ -4822,19 +4822,19 @@
         <v>167209</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147034</v>
+        <v>148115</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>184874</v>
+        <v>185373</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4762611119327118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4187968017973122</v>
+        <v>0.4218776016671151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5265787195977518</v>
+        <v>0.5279978265628018</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>282</v>
@@ -4843,19 +4843,19 @@
         <v>297274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>271547</v>
+        <v>269331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>323227</v>
+        <v>322348</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4505213975527276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4115309654340277</v>
+        <v>0.4081724991720582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4898524803492976</v>
+        <v>0.4885200393080604</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>79689</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64559</v>
+        <v>64501</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96184</v>
+        <v>96423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2580967523894329</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2090911237012212</v>
+        <v>0.2089061285820207</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.311518610130898</v>
+        <v>0.3122920285212059</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>86</v>
@@ -4893,19 +4893,19 @@
         <v>91014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75720</v>
+        <v>75306</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109422</v>
+        <v>108306</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2592361946791155</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2156741924124721</v>
+        <v>0.2144956681179673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3116666650477377</v>
+        <v>0.3084887413647371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -4914,19 +4914,19 @@
         <v>170704</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148731</v>
+        <v>148055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>193832</v>
+        <v>194406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2587030204429034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2254024007834384</v>
+        <v>0.2243791402786205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2937536898472451</v>
+        <v>0.2946241217949252</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>73458</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59594</v>
+        <v>60741</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89780</v>
+        <v>89360</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3031480743497554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2459327667217108</v>
+        <v>0.2506659440030889</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3705068778311523</v>
+        <v>0.3687708889001577</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -5039,19 +5039,19 @@
         <v>118204</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>100266</v>
+        <v>100296</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>138382</v>
+        <v>137080</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.305669572703216</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2592833898824603</v>
+        <v>0.2593594361625457</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3578499655451468</v>
+        <v>0.3544828655916564</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>171</v>
@@ -5060,19 +5060,19 @@
         <v>191662</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>169064</v>
+        <v>167003</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>216999</v>
+        <v>216477</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3046982190504047</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.268771724006243</v>
+        <v>0.2654955787681934</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3449782189093524</v>
+        <v>0.3441483739929413</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>107589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>91178</v>
+        <v>92476</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>123794</v>
+        <v>123834</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4439981502595145</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3762751747675085</v>
+        <v>0.3816291027853969</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5108733343038538</v>
+        <v>0.5110385509020786</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>166</v>
@@ -5110,19 +5110,19 @@
         <v>185106</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>163240</v>
+        <v>165571</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>205250</v>
+        <v>205809</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4786748238099297</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4221301778972431</v>
+        <v>0.4281592328339078</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5307655310144384</v>
+        <v>0.5322118854351626</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>261</v>
@@ -5131,19 +5131,19 @@
         <v>292695</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>266521</v>
+        <v>265777</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>320192</v>
+        <v>320601</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4653163722867258</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4237069495557388</v>
+        <v>0.4225228330112953</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5090313234107032</v>
+        <v>0.509681369304095</v>
       </c>
     </row>
     <row r="30">
@@ -5160,19 +5160,19 @@
         <v>61271</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47610</v>
+        <v>47957</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>77183</v>
+        <v>76567</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2528537753907301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1964760786891619</v>
+        <v>0.1979112188927669</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3185176344895054</v>
+        <v>0.3159783771023614</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>77</v>
@@ -5181,19 +5181,19 @@
         <v>83395</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>68922</v>
+        <v>68467</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>102338</v>
+        <v>100695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2156556034868543</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1782297643729154</v>
+        <v>0.1770532184698187</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2646414701208157</v>
+        <v>0.2603932005775113</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>132</v>
@@ -5202,19 +5202,19 @@
         <v>144666</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123170</v>
+        <v>122968</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168858</v>
+        <v>165724</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2299854086628695</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1958111330315529</v>
+        <v>0.1954908215800794</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2684447879704956</v>
+        <v>0.2634623700914464</v>
       </c>
     </row>
     <row r="31">
@@ -5306,19 +5306,19 @@
         <v>1100975</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1041843</v>
+        <v>1045119</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1155466</v>
+        <v>1153301</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3228935142344891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3055515732738434</v>
+        <v>0.3065122855590551</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3388746451957417</v>
+        <v>0.3382398267070387</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1073</v>
@@ -5327,19 +5327,19 @@
         <v>1166206</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1106805</v>
+        <v>1104799</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1220807</v>
+        <v>1222459</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3296400002024174</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.312849793591859</v>
+        <v>0.3122827593805887</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3450736138420546</v>
+        <v>0.3455405501869924</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2096</v>
@@ -5348,19 +5348,19 @@
         <v>2267181</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2176051</v>
+        <v>2178505</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2349029</v>
+        <v>2345655</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3263289548426631</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3132121946358293</v>
+        <v>0.3135653813926497</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3381099088747213</v>
+        <v>0.3376242125311077</v>
       </c>
     </row>
     <row r="33">
@@ -5377,19 +5377,19 @@
         <v>1453063</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1395723</v>
+        <v>1391091</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1514617</v>
+        <v>1518188</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4261540123482019</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4093372154095754</v>
+        <v>0.4079789163997334</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4442064019302701</v>
+        <v>0.4452538363913037</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1407</v>
@@ -5398,19 +5398,19 @@
         <v>1516622</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1455961</v>
+        <v>1459883</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1579051</v>
+        <v>1582306</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4286886880322768</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4115421008377171</v>
+        <v>0.4126506922961379</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4463349539886843</v>
+        <v>0.4472548362015411</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2770</v>
@@ -5419,19 +5419,19 @@
         <v>2969685</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2883016</v>
+        <v>2886640</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3064543</v>
+        <v>3058520</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4274447180303922</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4149699256033135</v>
+        <v>0.415491483018964</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4410981766728759</v>
+        <v>0.4402312794956362</v>
       </c>
     </row>
     <row r="34">
@@ -5448,19 +5448,19 @@
         <v>855676</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>802211</v>
+        <v>796681</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>905228</v>
+        <v>906704</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.250952473417309</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.235272111451682</v>
+        <v>0.2336503358055561</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.265484991429176</v>
+        <v>0.2659180264065812</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>799</v>
@@ -5469,19 +5469,19 @@
         <v>854989</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>805395</v>
+        <v>802432</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>904609</v>
+        <v>905975</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2416713117653058</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2276530502963438</v>
+        <v>0.2268156103246382</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2556970259576934</v>
+        <v>0.2560831756752246</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1607</v>
@@ -5490,19 +5490,19 @@
         <v>1710665</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1643760</v>
+        <v>1636226</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1784374</v>
+        <v>1788262</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2462263271269447</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2365962955726789</v>
+        <v>0.2355118895487988</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2568357713205783</v>
+        <v>0.2573953710409583</v>
       </c>
     </row>
     <row r="35">
@@ -5837,19 +5837,19 @@
         <v>156798</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135712</v>
+        <v>137079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175501</v>
+        <v>178296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3749782879389006</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3245514651456041</v>
+        <v>0.3278208936468985</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4197071477386164</v>
+        <v>0.4263902744302658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -5858,19 +5858,19 @@
         <v>163354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143188</v>
+        <v>143941</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183019</v>
+        <v>182152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4158931056539523</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3645518791852165</v>
+        <v>0.3664671487466196</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4659596011394386</v>
+        <v>0.4637509708293784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -5879,19 +5879,19 @@
         <v>320152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>293234</v>
+        <v>292103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348097</v>
+        <v>346123</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3947956247269134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3616021309646127</v>
+        <v>0.3602080178461811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4292567820690768</v>
+        <v>0.4268227951798816</v>
       </c>
     </row>
     <row r="5">
@@ -5908,19 +5908,19 @@
         <v>162480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141490</v>
+        <v>142661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183318</v>
+        <v>184050</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3885673760537854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3383708586119208</v>
+        <v>0.3411698203800129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4384002581305687</v>
+        <v>0.4401517758427103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -5929,19 +5929,19 @@
         <v>151726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>132316</v>
+        <v>132794</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170530</v>
+        <v>171142</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3862880807117531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3368725736471649</v>
+        <v>0.3380893286038525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4341628453047046</v>
+        <v>0.4357216173512035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -5950,19 +5950,19 @@
         <v>314206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>285751</v>
+        <v>288309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341819</v>
+        <v>341093</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3874633857159332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3523743272083441</v>
+        <v>0.3555284095659773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4215152743466659</v>
+        <v>0.4206194551601161</v>
       </c>
     </row>
     <row r="6">
@@ -5979,19 +5979,19 @@
         <v>98874</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81709</v>
+        <v>81272</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116620</v>
+        <v>119331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2364543360073139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1954057031994623</v>
+        <v>0.1943613766762554</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2788944936081897</v>
+        <v>0.2853772201026718</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>80</v>
@@ -6000,19 +6000,19 @@
         <v>77699</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64593</v>
+        <v>63679</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95826</v>
+        <v>93943</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1978188136342945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1644501176724768</v>
+        <v>0.1621249538308104</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2439700417417031</v>
+        <v>0.2391759437602221</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>174</v>
@@ -6021,19 +6021,19 @@
         <v>176573</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>155566</v>
+        <v>154881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203522</v>
+        <v>201512</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2177409895571534</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1918365694363194</v>
+        <v>0.1909921708842223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2509736752079403</v>
+        <v>0.2484954125315215</v>
       </c>
     </row>
     <row r="7">
@@ -6125,19 +6125,19 @@
         <v>220879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199445</v>
+        <v>195470</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246658</v>
+        <v>244259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3740573657533927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3377592275321532</v>
+        <v>0.3310262167431208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4177124254864831</v>
+        <v>0.4136507514322487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>221</v>
@@ -6146,19 +6146,19 @@
         <v>214735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191469</v>
+        <v>193012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236346</v>
+        <v>238094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3817257719396079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3403658734423414</v>
+        <v>0.343108625269556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4201431661243015</v>
+        <v>0.4232501387695666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>434</v>
@@ -6167,19 +6167,19 @@
         <v>435615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>400368</v>
+        <v>401547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>469067</v>
+        <v>470950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3777985985604706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3472299782051156</v>
+        <v>0.348252837524222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4068111532244358</v>
+        <v>0.4084437792495789</v>
       </c>
     </row>
     <row r="9">
@@ -6196,19 +6196,19 @@
         <v>246278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>223169</v>
+        <v>220913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>270345</v>
+        <v>272912</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4170702363004249</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3779348121638481</v>
+        <v>0.3741149478207731</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.457827033617682</v>
+        <v>0.4621736983549036</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>233</v>
@@ -6217,19 +6217,19 @@
         <v>226851</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>205087</v>
+        <v>204513</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>249325</v>
+        <v>249048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4032626235516245</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3645751071565259</v>
+        <v>0.3635539931754977</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4432152989965337</v>
+        <v>0.442722941061526</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>467</v>
@@ -6238,19 +6238,19 @@
         <v>473129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>438155</v>
+        <v>441479</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>503832</v>
+        <v>505229</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4103338307751022</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3800017991899127</v>
+        <v>0.3828842670965537</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4369620138600058</v>
+        <v>0.4381735818406338</v>
       </c>
     </row>
     <row r="10">
@@ -6267,19 +6267,19 @@
         <v>123338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103898</v>
+        <v>105617</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142217</v>
+        <v>144747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2088723979461825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1759498203904578</v>
+        <v>0.1788614884848604</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2408426565875832</v>
+        <v>0.2451284898950188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -6288,19 +6288,19 @@
         <v>120952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102966</v>
+        <v>102596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140011</v>
+        <v>140526</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2150116045087676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1830379183037604</v>
+        <v>0.1823805103467404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2488922754002615</v>
+        <v>0.2498070323768962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -6309,19 +6309,19 @@
         <v>244291</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217480</v>
+        <v>214211</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>272520</v>
+        <v>271509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2118675706644272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1886150777076286</v>
+        <v>0.1857800437600418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2363503877764827</v>
+        <v>0.2354732566472408</v>
       </c>
     </row>
     <row r="11">
@@ -6413,19 +6413,19 @@
         <v>253003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>227541</v>
+        <v>229683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>277995</v>
+        <v>277693</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3798410835877349</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.341615062292374</v>
+        <v>0.3448298014068762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4173630090089267</v>
+        <v>0.4169097242289441</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>248</v>
@@ -6434,19 +6434,19 @@
         <v>246099</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>220559</v>
+        <v>223817</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>271782</v>
+        <v>271530</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3726041805723468</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.333934591234174</v>
+        <v>0.3388673687034229</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4114891039093687</v>
+        <v>0.4111068838276332</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>491</v>
@@ -6455,19 +6455,19 @@
         <v>499102</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>464421</v>
+        <v>465962</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>534025</v>
+        <v>534213</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3762378814754567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3500939983913882</v>
+        <v>0.351255691348822</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4025634333372436</v>
+        <v>0.4027052625843688</v>
       </c>
     </row>
     <row r="13">
@@ -6484,19 +6484,19 @@
         <v>265446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>241031</v>
+        <v>241701</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>290106</v>
+        <v>292392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3985220398077101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3618683900074279</v>
+        <v>0.3628728145314464</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4355457238750831</v>
+        <v>0.4389783112799224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>254</v>
@@ -6505,19 +6505,19 @@
         <v>251364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227245</v>
+        <v>226682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>278578</v>
+        <v>276488</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3805744339848515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3440574450766924</v>
+        <v>0.3432050571522163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4217786208258582</v>
+        <v>0.4186138259362785</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>505</v>
@@ -6526,19 +6526,19 @@
         <v>516809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482783</v>
+        <v>482473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>551643</v>
+        <v>556003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3895860555788551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3639359444754309</v>
+        <v>0.3637024895871105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4158447037120701</v>
+        <v>0.4191317244182796</v>
       </c>
     </row>
     <row r="14">
@@ -6555,19 +6555,19 @@
         <v>147627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128878</v>
+        <v>125364</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173158</v>
+        <v>170363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.221636876604555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1934892452827312</v>
+        <v>0.1882126465911064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2599681581064747</v>
+        <v>0.2557712902022184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -6576,19 +6576,19 @@
         <v>163022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141705</v>
+        <v>140716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187159</v>
+        <v>184559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2468213854428017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2145462066518211</v>
+        <v>0.2130498661050844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2833659692515313</v>
+        <v>0.2794290353223284</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>303</v>
@@ -6597,19 +6597,19 @@
         <v>310649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279396</v>
+        <v>280082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339923</v>
+        <v>343249</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2341760629456882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2106170963952642</v>
+        <v>0.2111337535882837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2562438874239755</v>
+        <v>0.258751170508063</v>
       </c>
     </row>
     <row r="15">
@@ -6701,19 +6701,19 @@
         <v>222602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195232</v>
+        <v>198821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>247726</v>
+        <v>248571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3474988119196979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3047717042733096</v>
+        <v>0.3103755341771666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3867199408630146</v>
+        <v>0.3880392450288815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>248</v>
@@ -6722,19 +6722,19 @@
         <v>263726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>239050</v>
+        <v>239257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>290036</v>
+        <v>289222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4069622018375573</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.368883547930051</v>
+        <v>0.3692030850249128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4475618010675156</v>
+        <v>0.4463049992990908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>451</v>
@@ -6743,19 +6743,19 @@
         <v>486328</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>451355</v>
+        <v>449230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>522825</v>
+        <v>519301</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3774024603473678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3502629547415989</v>
+        <v>0.3486137632250761</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4057248643422281</v>
+        <v>0.4029904122617656</v>
       </c>
     </row>
     <row r="17">
@@ -6772,19 +6772,19 @@
         <v>244264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217719</v>
+        <v>221248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>268431</v>
+        <v>274389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3813146682412293</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3398758545843228</v>
+        <v>0.3453854591532259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4190419966378652</v>
+        <v>0.4283423937496074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>212</v>
@@ -6793,19 +6793,19 @@
         <v>228952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204888</v>
+        <v>202627</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255543</v>
+        <v>252990</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3533019152095826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3161673840890818</v>
+        <v>0.3126787048236535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3943348184633183</v>
+        <v>0.3903942616360238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>430</v>
@@ -6814,19 +6814,19 @@
         <v>473216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>436694</v>
+        <v>436622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>508470</v>
+        <v>510002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.367227285747452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3388856462585315</v>
+        <v>0.3388292338352157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3945853412133605</v>
+        <v>0.395774414066506</v>
       </c>
     </row>
     <row r="18">
@@ -6843,19 +6843,19 @@
         <v>173717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151323</v>
+        <v>151652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198976</v>
+        <v>197428</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2711865198390728</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2362271624975283</v>
+        <v>0.2367410917678968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3106172114566233</v>
+        <v>0.3081997755020565</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -6864,19 +6864,19 @@
         <v>155357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>132775</v>
+        <v>133835</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179974</v>
+        <v>179153</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2397358829528601</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2048890153536562</v>
+        <v>0.2065236754952489</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2777228258765631</v>
+        <v>0.2764555934962208</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>297</v>
@@ -6885,19 +6885,19 @@
         <v>329075</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>296775</v>
+        <v>297154</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>362425</v>
+        <v>363313</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2553702539051802</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.230304314629099</v>
+        <v>0.2305989595740148</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2812505455676935</v>
+        <v>0.2819401197875687</v>
       </c>
     </row>
     <row r="19">
@@ -6989,19 +6989,19 @@
         <v>179567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158967</v>
+        <v>158074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204907</v>
+        <v>199578</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3765144676645923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.333321997084765</v>
+        <v>0.3314496890645792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.429647336155238</v>
+        <v>0.4184743750501717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -7010,19 +7010,19 @@
         <v>190466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>168947</v>
+        <v>170234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>215419</v>
+        <v>214340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3842099855112807</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3408025345441743</v>
+        <v>0.343398383488084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4345464112871911</v>
+        <v>0.4323692068368129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>324</v>
@@ -7031,19 +7031,19 @@
         <v>370032</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>337523</v>
+        <v>337742</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>401619</v>
+        <v>401467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.380436661565333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.347013328405014</v>
+        <v>0.3472385140601212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4129117212754114</v>
+        <v>0.4127557184376119</v>
       </c>
     </row>
     <row r="21">
@@ -7060,19 +7060,19 @@
         <v>192564</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>169331</v>
+        <v>170789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>214003</v>
+        <v>216908</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4037675144562335</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3550518268553635</v>
+        <v>0.3581090968772707</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4487215089483866</v>
+        <v>0.4548128822020285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>177</v>
@@ -7081,19 +7081,19 @@
         <v>204749</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>183775</v>
+        <v>181896</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>228272</v>
+        <v>229392</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4130222033582508</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3707125637127537</v>
+        <v>0.3669234783408374</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4604733578111408</v>
+        <v>0.4627329659768079</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>349</v>
@@ -7102,19 +7102,19 @@
         <v>397313</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>364939</v>
+        <v>365795</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>429744</v>
+        <v>430345</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4084843749830875</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3752008215647963</v>
+        <v>0.3760805362908039</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4418277124492366</v>
+        <v>0.4424456185083736</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7131,19 @@
         <v>104787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86138</v>
+        <v>87153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124457</v>
+        <v>124474</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2197180178791742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1806147073668192</v>
+        <v>0.1827420440602228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2609604409198613</v>
+        <v>0.2609969588736609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -7152,19 +7152,19 @@
         <v>100519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79405</v>
+        <v>82355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118434</v>
+        <v>119691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2027678111304685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1601765085541971</v>
+        <v>0.1661269720578648</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2389073461656564</v>
+        <v>0.2414422955052921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -7173,19 +7173,19 @@
         <v>205306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180362</v>
+        <v>179765</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234805</v>
+        <v>232653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2110789634515794</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1854337150248736</v>
+        <v>0.1848192946888764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2414067372098474</v>
+        <v>0.2391945703985328</v>
       </c>
     </row>
     <row r="23">
@@ -7277,19 +7277,19 @@
         <v>133630</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114822</v>
+        <v>114602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>151350</v>
+        <v>149918</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4008302250224217</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3444130117041647</v>
+        <v>0.3437547225372743</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4539824805907209</v>
+        <v>0.4496859854064814</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -7298,19 +7298,19 @@
         <v>154280</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>135082</v>
+        <v>135973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>174193</v>
+        <v>174600</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4128575218703483</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3614833788743761</v>
+        <v>0.3638676487668467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4661448174417273</v>
+        <v>0.4672325907972669</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>277</v>
@@ -7319,19 +7319,19 @@
         <v>287911</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>259816</v>
+        <v>262183</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>313386</v>
+        <v>312698</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4071866622468296</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3674533249844114</v>
+        <v>0.3708011467677849</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4432164858496836</v>
+        <v>0.4422424304643685</v>
       </c>
     </row>
     <row r="25">
@@ -7348,19 +7348,19 @@
         <v>116100</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100508</v>
+        <v>98966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134624</v>
+        <v>133916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3482476174355711</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3014776585907891</v>
+        <v>0.2968542477615604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4038119156138792</v>
+        <v>0.4016877526424094</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -7369,19 +7369,19 @@
         <v>138968</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120721</v>
+        <v>120143</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>158253</v>
+        <v>156851</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.371880954568273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3230513866583724</v>
+        <v>0.3215059432914564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4234883546064612</v>
+        <v>0.4197365137529483</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>244</v>
@@ -7390,19 +7390,19 @@
         <v>255068</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>228453</v>
+        <v>228942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>282592</v>
+        <v>281487</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3607378574110803</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3230965402664346</v>
+        <v>0.3237877424005757</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.399664018458597</v>
+        <v>0.3981024211027299</v>
       </c>
     </row>
     <row r="26">
@@ -7419,19 +7419,19 @@
         <v>83653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67469</v>
+        <v>68157</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98703</v>
+        <v>100449</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2509221575420073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2023753473162045</v>
+        <v>0.2044400340750717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2960647533230182</v>
+        <v>0.3013023746946615</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>74</v>
@@ -7440,19 +7440,19 @@
         <v>80441</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>64427</v>
+        <v>64535</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98725</v>
+        <v>97091</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2152615235613787</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1724071166804992</v>
+        <v>0.1726971983513809</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2641891816188514</v>
+        <v>0.259817664808074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -7461,19 +7461,19 @@
         <v>164094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143174</v>
+        <v>141852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>187560</v>
+        <v>187015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2320754803420901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.202488422246436</v>
+        <v>0.2006179940197541</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2652621778029761</v>
+        <v>0.2644917201594884</v>
       </c>
     </row>
     <row r="27">
@@ -7565,19 +7565,19 @@
         <v>98565</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>83285</v>
+        <v>85251</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>112517</v>
+        <v>113073</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3847242212209359</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3250841672393476</v>
+        <v>0.3327581757963374</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4391833754299785</v>
+        <v>0.4413533161523503</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>133</v>
@@ -7586,19 +7586,19 @@
         <v>176347</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>153676</v>
+        <v>154121</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>201562</v>
+        <v>201467</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4449203897243111</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3877215069515723</v>
+        <v>0.3888430794972549</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5085354578353096</v>
+        <v>0.5082964465654518</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>249</v>
@@ -7607,19 +7607,19 @@
         <v>274913</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>248597</v>
+        <v>247563</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>301595</v>
+        <v>301475</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4212870144193857</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3809604210684262</v>
+        <v>0.3793750294013001</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4621768256145152</v>
+        <v>0.461992843185685</v>
       </c>
     </row>
     <row r="29">
@@ -7636,19 +7636,19 @@
         <v>109164</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>95433</v>
+        <v>94704</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124296</v>
+        <v>123168</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4260953909453383</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.372498953570874</v>
+        <v>0.3696528320778492</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4851580956701325</v>
+        <v>0.4807562051445119</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>113</v>
@@ -7657,19 +7657,19 @@
         <v>151144</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>130688</v>
+        <v>128808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>174263</v>
+        <v>174183</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3813339906246136</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3297232605641897</v>
+        <v>0.3249795874712902</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4396619219600008</v>
+        <v>0.4394605720196863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>242</v>
@@ -7678,19 +7678,19 @@
         <v>260309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>233241</v>
+        <v>232827</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>291041</v>
+        <v>287672</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3989075837494714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3574279480812709</v>
+        <v>0.3567934787002561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4460030403105802</v>
+        <v>0.4408398452401552</v>
       </c>
     </row>
     <row r="30">
@@ -7707,19 +7707,19 @@
         <v>48467</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37492</v>
+        <v>37944</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61029</v>
+        <v>61508</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1891803878337258</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1463406064522021</v>
+        <v>0.14810459098164</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2382140454599939</v>
+        <v>0.2400823082465756</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -7728,19 +7728,19 @@
         <v>68865</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53534</v>
+        <v>52270</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>85778</v>
+        <v>87279</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1737456196510753</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1350657693425796</v>
+        <v>0.1318762253753973</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2164160036884275</v>
+        <v>0.2202025688288327</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>108</v>
@@ -7749,19 +7749,19 @@
         <v>117333</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>95276</v>
+        <v>96752</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139496</v>
+        <v>139204</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1798054018311429</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.146004418381135</v>
+        <v>0.1482659243341054</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2137691857150773</v>
+        <v>0.2133215173213095</v>
       </c>
     </row>
     <row r="31">
@@ -7853,19 +7853,19 @@
         <v>1265044</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1211029</v>
+        <v>1207307</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1319397</v>
+        <v>1327374</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3740735745445266</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3581014671436388</v>
+        <v>0.3570007669712781</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3901460036024207</v>
+        <v>0.3925047595059624</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1324</v>
@@ -7874,19 +7874,19 @@
         <v>1409008</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1349141</v>
+        <v>1350875</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1474094</v>
+        <v>1467232</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3991957638732372</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.382234376045965</v>
+        <v>0.3827257972405584</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4176355911880035</v>
+        <v>0.4156915076969925</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2534</v>
@@ -7895,19 +7895,19 @@
         <v>2674052</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2583894</v>
+        <v>2592735</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2754132</v>
+        <v>2768869</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3869033096662841</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3738586134924306</v>
+        <v>0.3751377224368039</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3984899145473121</v>
+        <v>0.4006221993482648</v>
       </c>
     </row>
     <row r="33">
@@ -7924,19 +7924,19 @@
         <v>1336296</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1276263</v>
+        <v>1278578</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1389476</v>
+        <v>1394806</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3951429242186514</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3773910753426789</v>
+        <v>0.3780756379299269</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4108683356862512</v>
+        <v>0.4124444170189679</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1279</v>
@@ -7945,19 +7945,19 @@
         <v>1353753</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1292599</v>
+        <v>1293260</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1419889</v>
+        <v>1412902</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3835411743183486</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3662151527300466</v>
+        <v>0.366402457672344</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.402278591181563</v>
+        <v>0.4002989246250986</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2548</v>
@@ -7966,19 +7966,19 @@
         <v>2690049</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2605485</v>
+        <v>2602122</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2779027</v>
+        <v>2770652</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3892179876527266</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3769825989738436</v>
+        <v>0.3764959196206603</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4020920328156769</v>
+        <v>0.4008802851070991</v>
       </c>
     </row>
     <row r="34">
@@ -7995,19 +7995,19 @@
         <v>780465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>725749</v>
+        <v>730313</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>828949</v>
+        <v>834066</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.230783501236822</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2146040806263959</v>
+        <v>0.2159535827787968</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2451203795948341</v>
+        <v>0.2466335905493513</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>721</v>
@@ -8016,19 +8016,19 @@
         <v>766855</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>712489</v>
+        <v>715172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>819508</v>
+        <v>818400</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2172630618084142</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2018600705735704</v>
+        <v>0.202620206039649</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2321805344251913</v>
+        <v>0.2318666066807732</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1461</v>
@@ -8037,19 +8037,19 @@
         <v>1547320</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1477386</v>
+        <v>1470218</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1624201</v>
+        <v>1618247</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2238787026809892</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.213760074866412</v>
+        <v>0.2127230177081185</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2350024330045413</v>
+        <v>0.234141065088458</v>
       </c>
     </row>
     <row r="35">
